--- a/Public/Uploads/2016-09-10/57d36509c4679.xlsx
+++ b/Public/Uploads/2016-09-10/57d36509c4679.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="72">
   <si>
     <t>品种</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -248,6 +248,10 @@
   </si>
   <si>
     <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交货地点</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -602,10 +606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M49"/>
+  <dimension ref="A1:N49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -619,7 +623,7 @@
     <col min="12" max="12" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -659,8 +663,11 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -695,7 +702,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -730,7 +737,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -765,7 +772,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -800,7 +807,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -835,7 +842,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -870,7 +877,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -905,7 +912,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -940,7 +947,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -975,7 +982,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -1010,7 +1017,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -1045,7 +1052,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -1080,7 +1087,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -1115,7 +1122,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1150,7 +1157,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
